--- a/data/trans_orig/P0901-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{707738FC-D0FA-4B68-8B5F-7E093A827D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1074B8F8-4803-4FC1-9C7C-F3DFCA5F26DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65BD927D-B337-4497-8B42-66B5502FB858}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3161C04-0567-4F11-9BE0-986B21D8D1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>17,18%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>82,82%</t>
   </si>
   <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>73,53%</t>
   </si>
   <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,16 +140,16 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>8,56%</t>
+    <t>8,73%</t>
   </si>
   <si>
     <t>11,77%</t>
@@ -167,10 +167,10 @@
     <t>94,44%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>89,88%</t>
@@ -179,7 +179,7 @@
     <t>88,23%</t>
   </si>
   <si>
-    <t>91,44%</t>
+    <t>91,27%</t>
   </si>
   <si>
     <t>92,23%</t>
@@ -197,532 +197,544 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>5,22%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
@@ -731,166 +743,178 @@
     <t>30,27%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>38,81%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>69,73%</t>
   </si>
   <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
   </si>
   <si>
     <t>55,66%</t>
   </si>
   <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>92,56%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
-    <t>18,2%</t>
+    <t>18,25%</t>
   </si>
   <si>
     <t>21,45%</t>
@@ -899,19 +923,19 @@
     <t>17,3%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>85,9%</t>
   </si>
   <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>79,85%</t>
@@ -920,16 +944,16 @@
     <t>78,55%</t>
   </si>
   <si>
-    <t>81,8%</t>
+    <t>81,75%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58714454-84F8-4610-8311-237D40DECB0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D798F0-F5A6-4AC9-8428-A36B59EEFBD6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2008,7 +2032,7 @@
         <v>5681</v>
       </c>
       <c r="N14" s="7">
-        <v>5807189</v>
+        <v>5807190</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2059,7 +2083,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D505B2F9-2804-43F2-B38D-ACD75B579D89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93461CAA-EDCD-4616-ACBA-051F408E070F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2843,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E317FCB4-E00B-42E6-94F2-11507A8D1BAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BEE2CE-4565-402A-ADA3-ABE2DF436714}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3140,10 +3164,10 @@
         <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>372</v>
@@ -3152,13 +3176,13 @@
         <v>413752</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3197,13 @@
         <v>1925919</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1676</v>
@@ -3188,13 +3212,13 @@
         <v>1725014</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3488</v>
@@ -3203,13 +3227,13 @@
         <v>3650933</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3301,13 @@
         <v>30206</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -3292,13 +3316,13 @@
         <v>55215</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -3307,13 +3331,13 @@
         <v>85422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3352,13 @@
         <v>516680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>478</v>
@@ -3343,7 +3367,7 @@
         <v>493925</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>209</v>
@@ -3435,10 +3459,10 @@
         <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>594</v>
@@ -3447,13 +3471,13 @@
         <v>686939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>939</v>
@@ -3462,13 +3486,13 @@
         <v>1041740</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3507,13 @@
         <v>3022817</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2732</v>
@@ -3498,13 +3522,13 @@
         <v>2845161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>5602</v>
@@ -3513,13 +3537,13 @@
         <v>5867978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C913820A-15DE-4CCE-B67B-C5AA2B549859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47638DDC-F6E0-4635-A1BE-84DB697C9C9E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3742,13 @@
         <v>163936</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>640</v>
@@ -3733,13 +3757,13 @@
         <v>370699</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>851</v>
@@ -3748,13 +3772,13 @@
         <v>534635</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3793,13 @@
         <v>377698</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>787</v>
@@ -3784,13 +3808,13 @@
         <v>465254</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1267</v>
@@ -3799,13 +3823,13 @@
         <v>842951</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3897,13 @@
         <v>258210</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>506</v>
@@ -3888,13 +3912,13 @@
         <v>326017</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>765</v>
@@ -3903,13 +3927,13 @@
         <v>584227</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3948,13 @@
         <v>1901508</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2412</v>
@@ -3939,13 +3963,13 @@
         <v>1921741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>4142</v>
@@ -3954,13 +3978,13 @@
         <v>3823250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4052,13 @@
         <v>53498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -4043,13 +4067,13 @@
         <v>68652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -4058,13 +4082,13 @@
         <v>122150</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4103,13 @@
         <v>619541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>892</v>
@@ -4094,13 +4118,13 @@
         <v>645234</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1517</v>
@@ -4109,13 +4133,13 @@
         <v>1264776</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4207,13 @@
         <v>475644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>1258</v>
@@ -4198,13 +4222,13 @@
         <v>765369</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>1784</v>
@@ -4213,13 +4237,13 @@
         <v>1241013</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4258,13 @@
         <v>2898748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>4091</v>
@@ -4249,13 +4273,13 @@
         <v>3032229</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>6926</v>
@@ -4264,13 +4288,13 @@
         <v>5930976</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P0901-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1074B8F8-4803-4FC1-9C7C-F3DFCA5F26DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73BDC91F-FBDC-4CF3-AA88-3C418B332644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3161C04-0567-4F11-9BE0-986B21D8D1A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A22758E0-27A8-4F54-82B6-18F8472877C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>17,18%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>82,82%</t>
   </si>
   <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>73,53%</t>
   </si>
   <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>89,88%</t>
   </si>
   <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,61 +197,55 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>12,1%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>90,9%</t>
   </si>
   <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>87,9%</t>
   </si>
   <si>
     <t>93,36%</t>
   </si>
   <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>8,12%</t>
+    <t>8,08%</t>
   </si>
   <si>
     <t>10,05%</t>
@@ -260,19 +254,19 @@
     <t>16,34%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
   <si>
     <t>90,95%</t>
@@ -281,25 +275,25 @@
     <t>89,95%</t>
   </si>
   <si>
-    <t>91,88%</t>
+    <t>91,92%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,127 +305,127 @@
     <t>24,86%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
   <si>
     <t>75,14%</t>
   </si>
   <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
   </si>
   <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>88,35%</t>
   </si>
   <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>7,15%</t>
@@ -440,31 +434,31 @@
     <t>5,38%</t>
   </si>
   <si>
-    <t>9,16%</t>
+    <t>9,08%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>92,85%</t>
   </si>
   <si>
-    <t>90,84%</t>
+    <t>90,92%</t>
   </si>
   <si>
     <t>94,62%</t>
@@ -473,7 +467,7 @@
     <t>12,01%</t>
   </si>
   <si>
-    <t>10,95%</t>
+    <t>10,92%</t>
   </si>
   <si>
     <t>13,2%</t>
@@ -482,19 +476,19 @@
     <t>20,81%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>87,99%</t>
@@ -503,28 +497,28 @@
     <t>86,8%</t>
   </si>
   <si>
-    <t>89,05%</t>
+    <t>89,08%</t>
   </si>
   <si>
     <t>79,19%</t>
   </si>
   <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>23,08%</t>
@@ -533,31 +527,28 @@
     <t>20,01%</t>
   </si>
   <si>
-    <t>26,07%</t>
+    <t>26,14%</t>
   </si>
   <si>
     <t>37,04%</t>
   </si>
   <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>40,48%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>73,93%</t>
+    <t>73,86%</t>
   </si>
   <si>
     <t>79,99%</t>
@@ -566,28 +557,25 @@
     <t>62,96%</t>
   </si>
   <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
+    <t>59,52%</t>
   </si>
   <si>
     <t>68,98%</t>
   </si>
   <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>13,24%</t>
@@ -596,13 +584,13 @@
     <t>11,69%</t>
   </si>
   <si>
-    <t>14,95%</t>
+    <t>14,89%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>9,25%</t>
+    <t>9,18%</t>
   </si>
   <si>
     <t>11,19%</t>
@@ -611,16 +599,16 @@
     <t>92,75%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>85,05%</t>
+    <t>85,11%</t>
   </si>
   <si>
     <t>88,31%</t>
@@ -632,109 +620,103 @@
     <t>88,81%</t>
   </si>
   <si>
-    <t>90,75%</t>
+    <t>90,82%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>6,11%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>93,89%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>80,55%</t>
   </si>
   <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
   </si>
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
@@ -815,9 +797,6 @@
     <t>13,26%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
     <t>14,33%</t>
   </si>
   <si>
@@ -843,9 +822,6 @@
   </si>
   <si>
     <t>85,67%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
   </si>
   <si>
     <t>7,95%</t>
@@ -1365,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D798F0-F5A6-4AC9-8428-A36B59EEFBD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D41E7-B1A1-4A28-9953-1A7FEA41883A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1692,7 +1668,7 @@
         <v>1555</v>
       </c>
       <c r="D8" s="7">
-        <v>1599203</v>
+        <v>1599204</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1743,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1817,10 +1793,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -1829,13 +1805,13 @@
         <v>68298</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,13 +1826,13 @@
         <v>526477</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>412</v>
@@ -1865,13 +1841,13 @@
         <v>433045</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>916</v>
@@ -1880,13 +1856,13 @@
         <v>959522</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,16 +1927,16 @@
         <v>300</v>
       </c>
       <c r="D13" s="7">
-        <v>296418</v>
+        <v>296417</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>530</v>
@@ -1969,13 +1945,13 @@
         <v>552134</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>830</v>
@@ -1984,13 +1960,13 @@
         <v>848551</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +1981,13 @@
         <v>2980126</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2767</v>
@@ -2020,13 +1996,13 @@
         <v>2827064</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5681</v>
@@ -2035,13 +2011,13 @@
         <v>5807190</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2097,7 +2073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93461CAA-EDCD-4616-ACBA-051F408E070F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B1AA6-FC10-4C89-9FA5-65D7343320A1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2133,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2240,13 +2216,13 @@
         <v>242279</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>467</v>
@@ -2255,13 +2231,13 @@
         <v>498335</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>686</v>
@@ -2270,13 +2246,13 @@
         <v>740615</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2267,13 @@
         <v>732364</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>780</v>
@@ -2306,13 +2282,13 @@
         <v>839461</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1469</v>
@@ -2321,13 +2297,13 @@
         <v>1571825</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2371,13 @@
         <v>137784</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>183</v>
@@ -2410,13 +2386,13 @@
         <v>204781</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>314</v>
@@ -2425,13 +2401,13 @@
         <v>342564</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2422,13 @@
         <v>1826173</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1452</v>
@@ -2461,13 +2437,13 @@
         <v>1553022</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3177</v>
@@ -2476,13 +2452,13 @@
         <v>3379196</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2526,13 @@
         <v>30535</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2565,13 +2541,13 @@
         <v>36689</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -2580,13 +2556,13 @@
         <v>67223</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2577,13 @@
         <v>450646</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>378</v>
@@ -2616,13 +2592,13 @@
         <v>421942</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>792</v>
@@ -2631,13 +2607,13 @@
         <v>872589</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2681,13 @@
         <v>410598</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>684</v>
@@ -2720,13 +2696,13 @@
         <v>739805</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1058</v>
@@ -2735,13 +2711,13 @@
         <v>1150403</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2732,13 @@
         <v>3009184</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2610</v>
@@ -2771,13 +2747,13 @@
         <v>2814425</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5438</v>
@@ -2786,13 +2762,13 @@
         <v>5823609</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,7 +2824,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BEE2CE-4565-402A-ADA3-ABE2DF436714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65143862-2C52-4563-B61D-E932AEADC439}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2967,13 @@
         <v>174128</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>314</v>
@@ -3006,13 +2982,13 @@
         <v>368438</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>494</v>
@@ -3021,13 +2997,13 @@
         <v>542566</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3018,13 @@
         <v>580219</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>578</v>
@@ -3057,13 +3033,13 @@
         <v>626222</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1160</v>
@@ -3072,13 +3048,13 @@
         <v>1206441</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3122,13 @@
         <v>150466</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>232</v>
@@ -3161,13 +3137,13 @@
         <v>263286</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>372</v>
@@ -3176,13 +3152,13 @@
         <v>413752</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3173,13 @@
         <v>1925919</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1676</v>
@@ -3212,13 +3188,13 @@
         <v>1725014</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>3488</v>
@@ -3227,13 +3203,13 @@
         <v>3650933</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3277,13 @@
         <v>30206</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -3316,13 +3292,13 @@
         <v>55215</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -3331,13 +3307,13 @@
         <v>85422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3328,13 @@
         <v>516680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>478</v>
@@ -3367,13 +3343,13 @@
         <v>493925</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>954</v>
@@ -3382,13 +3358,13 @@
         <v>1010604</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3432,13 @@
         <v>354801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>594</v>
@@ -3471,13 +3447,13 @@
         <v>686939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>939</v>
@@ -3486,13 +3462,13 @@
         <v>1041740</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3483,13 @@
         <v>3022817</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>2732</v>
@@ -3522,13 +3498,13 @@
         <v>2845161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>5602</v>
@@ -3537,13 +3513,13 @@
         <v>5867978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,7 +3575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47638DDC-F6E0-4635-A1BE-84DB697C9C9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23887B34-18C4-40FF-A3B4-46DD43501305}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3718,13 @@
         <v>163936</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>640</v>
@@ -3757,13 +3733,13 @@
         <v>370699</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>851</v>
@@ -3772,13 +3748,13 @@
         <v>534635</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3769,13 @@
         <v>377698</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>787</v>
@@ -3808,13 +3784,13 @@
         <v>465254</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1267</v>
@@ -3823,13 +3799,13 @@
         <v>842951</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3873,13 @@
         <v>258210</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>506</v>
@@ -3912,13 +3888,13 @@
         <v>326017</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>765</v>
@@ -3927,13 +3903,13 @@
         <v>584227</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3924,13 @@
         <v>1901508</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>2412</v>
@@ -3963,13 +3939,13 @@
         <v>1921741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>4142</v>
@@ -3978,13 +3954,13 @@
         <v>3823250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4028,13 @@
         <v>53498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -4067,13 +4043,13 @@
         <v>68652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -4082,13 +4058,13 @@
         <v>122150</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4079,13 @@
         <v>619541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>892</v>
@@ -4118,13 +4094,13 @@
         <v>645234</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>1517</v>
@@ -4133,13 +4109,13 @@
         <v>1264776</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4183,13 @@
         <v>475644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>1258</v>
@@ -4222,13 +4198,13 @@
         <v>765369</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>1784</v>
@@ -4237,13 +4213,13 @@
         <v>1241013</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4234,13 @@
         <v>2898748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>4091</v>
@@ -4273,13 +4249,13 @@
         <v>3032229</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>6926</v>
@@ -4288,13 +4264,13 @@
         <v>5930976</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4326,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0901-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73BDC91F-FBDC-4CF3-AA88-3C418B332644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4A8AAF-583E-468C-B190-E8745FA38918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A22758E0-27A8-4F54-82B6-18F8472877C2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7FA04D98-53F7-40CF-88F5-35049C6D384E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>82,82%</t>
   </si>
   <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>73,53%</t>
   </si>
   <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>89,88%</t>
   </si>
   <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,523 +197,529 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>12,1%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>5,18%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>93,89%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>11,68%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>14,2%</t>
   </si>
   <si>
-    <t>15,97%</t>
+    <t>15,98%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>88,32%</t>
   </si>
   <si>
     <t>80,55%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
   </si>
   <si>
     <t>85,8%</t>
@@ -725,70 +731,70 @@
     <t>30,27%</t>
   </si>
   <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
   </si>
   <si>
     <t>38,81%</t>
   </si>
   <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
   </si>
   <si>
     <t>69,73%</t>
   </si>
   <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
   </si>
   <si>
     <t>55,66%</t>
   </si>
   <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>12,17%</t>
+    <t>12,29%</t>
   </si>
   <si>
     <t>16,11%</t>
@@ -797,16 +803,19 @@
     <t>13,26%</t>
   </si>
   <si>
-    <t>14,33%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>88,04%</t>
   </si>
   <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>85,5%</t>
@@ -815,103 +824,94 @@
     <t>83,89%</t>
   </si>
   <si>
-    <t>87,83%</t>
+    <t>87,71%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>85,67%</t>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>9,62%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>90,38%</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
     <t>85,9%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>79,85%</t>
@@ -920,16 +920,16 @@
     <t>78,55%</t>
   </si>
   <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>83,8%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D41E7-B1A1-4A28-9953-1A7FEA41883A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2AFE77-A740-4739-9BAD-AB15C2E00EDA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1668,7 +1668,7 @@
         <v>1555</v>
       </c>
       <c r="D8" s="7">
-        <v>1599204</v>
+        <v>1599203</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1719,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1793,10 +1793,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -1805,13 +1805,13 @@
         <v>68298</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1826,13 @@
         <v>526477</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>412</v>
@@ -1841,13 +1841,13 @@
         <v>433045</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>916</v>
@@ -1856,13 +1856,13 @@
         <v>959522</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,16 +1927,16 @@
         <v>300</v>
       </c>
       <c r="D13" s="7">
-        <v>296417</v>
+        <v>296418</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>530</v>
@@ -1945,13 +1945,13 @@
         <v>552134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>830</v>
@@ -1960,13 +1960,13 @@
         <v>848551</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1981,13 @@
         <v>2980126</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2767</v>
@@ -1996,28 +1996,28 @@
         <v>2827064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5681</v>
       </c>
       <c r="N14" s="7">
-        <v>5807190</v>
+        <v>5807189</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2059,7 +2059,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B1AA6-FC10-4C89-9FA5-65D7343320A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7B9890-EFBB-4AB5-833A-460B2E8AB4D6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2109,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2216,13 +2216,13 @@
         <v>242279</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>467</v>
@@ -2231,13 +2231,13 @@
         <v>498335</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>686</v>
@@ -2246,13 +2246,13 @@
         <v>740615</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2267,13 @@
         <v>732364</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>780</v>
@@ -2282,13 +2282,13 @@
         <v>839461</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1469</v>
@@ -2297,13 +2297,13 @@
         <v>1571825</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2371,13 @@
         <v>137784</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>183</v>
@@ -2386,13 +2386,13 @@
         <v>204781</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>314</v>
@@ -2401,13 +2401,13 @@
         <v>342564</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2422,13 @@
         <v>1826173</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1452</v>
@@ -2437,13 +2437,13 @@
         <v>1553022</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3177</v>
@@ -2452,13 +2452,13 @@
         <v>3379196</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2526,13 @@
         <v>30535</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2541,13 +2541,13 @@
         <v>36689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -2556,13 +2556,13 @@
         <v>67223</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2577,13 @@
         <v>450646</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>378</v>
@@ -2592,13 +2592,13 @@
         <v>421942</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>792</v>
@@ -2607,13 +2607,13 @@
         <v>872589</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2681,13 @@
         <v>410598</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>684</v>
@@ -2696,13 +2696,13 @@
         <v>739805</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1058</v>
@@ -2711,13 +2711,13 @@
         <v>1150403</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2732,13 @@
         <v>3009184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2610</v>
@@ -2747,13 +2747,13 @@
         <v>2814425</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5438</v>
@@ -2762,13 +2762,13 @@
         <v>5823609</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,7 +2824,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65143862-2C52-4563-B61D-E932AEADC439}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D43F2-7B47-4D92-AE00-A5A09363CE75}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2967,13 @@
         <v>174128</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>314</v>
@@ -2982,13 +2982,13 @@
         <v>368438</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>494</v>
@@ -2997,13 +2997,13 @@
         <v>542566</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3018,13 @@
         <v>580219</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>578</v>
@@ -3033,13 +3033,13 @@
         <v>626222</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1160</v>
@@ -3048,13 +3048,13 @@
         <v>1206441</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3122,13 @@
         <v>150466</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>232</v>
@@ -3137,13 +3137,13 @@
         <v>263286</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>372</v>
@@ -3152,13 +3152,13 @@
         <v>413752</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3173,13 @@
         <v>1925919</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>1676</v>
@@ -3188,13 +3188,13 @@
         <v>1725014</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>3488</v>
@@ -3203,13 +3203,13 @@
         <v>3650933</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3277,13 @@
         <v>30206</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -3292,13 +3292,13 @@
         <v>55215</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -3307,13 +3307,13 @@
         <v>85422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3328,13 @@
         <v>516680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>478</v>
@@ -3343,13 +3343,13 @@
         <v>493925</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>954</v>
@@ -3358,13 +3358,13 @@
         <v>1010604</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3432,13 @@
         <v>354801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>594</v>
@@ -3447,13 +3447,13 @@
         <v>686939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>939</v>
@@ -3462,13 +3462,13 @@
         <v>1041740</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3483,13 @@
         <v>3022817</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>2732</v>
@@ -3498,13 +3498,13 @@
         <v>2845161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>5602</v>
@@ -3513,13 +3513,13 @@
         <v>5867978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3594,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23887B34-18C4-40FF-A3B4-46DD43501305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E89623-A393-4F3F-8B77-3A3BB4CE2AC8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3718,13 @@
         <v>163936</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>640</v>
@@ -3733,13 +3733,13 @@
         <v>370699</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>851</v>
@@ -3748,13 +3748,13 @@
         <v>534635</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3769,13 @@
         <v>377698</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>787</v>
@@ -3784,13 +3784,13 @@
         <v>465254</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>1267</v>
@@ -3799,13 +3799,13 @@
         <v>842951</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3873,13 @@
         <v>258210</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>506</v>
@@ -3888,13 +3888,13 @@
         <v>326017</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>765</v>
@@ -3903,13 +3903,13 @@
         <v>584227</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3924,13 @@
         <v>1901508</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2412</v>
@@ -3939,13 +3939,13 @@
         <v>1921741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4142</v>
@@ -3954,13 +3954,13 @@
         <v>3823250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4028,13 @@
         <v>53498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -4043,13 +4043,13 @@
         <v>68652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -4058,13 +4058,13 @@
         <v>122150</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4079,13 @@
         <v>619541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>892</v>
@@ -4094,13 +4094,13 @@
         <v>645234</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>47</v>
       </c>
       <c r="M11" s="7">
         <v>1517</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0901-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4A8AAF-583E-468C-B190-E8745FA38918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{075A885F-A4A3-4E5F-99A1-17C557C0FF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7FA04D98-53F7-40CF-88F5-35049C6D384E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7F695845-3735-4138-A5BE-A6A7CD056760}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -728,208 +728,208 @@
     <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2AFE77-A740-4739-9BAD-AB15C2E00EDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC2111A-967A-48AB-87ED-4AA38C4047FE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1543,7 +1543,7 @@
         <v>1812</v>
       </c>
       <c r="N5" s="7">
-        <v>1821478</v>
+        <v>1821477</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1594,7 +1594,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1668,7 +1668,7 @@
         <v>1555</v>
       </c>
       <c r="D8" s="7">
-        <v>1599203</v>
+        <v>1599204</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1719,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1927,7 +1927,7 @@
         <v>300</v>
       </c>
       <c r="D13" s="7">
-        <v>296418</v>
+        <v>296417</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1993,7 +1993,7 @@
         <v>2767</v>
       </c>
       <c r="I14" s="7">
-        <v>2827064</v>
+        <v>2827063</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2008,7 +2008,7 @@
         <v>5681</v>
       </c>
       <c r="N14" s="7">
-        <v>5807189</v>
+        <v>5807190</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2029,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2044,7 +2044,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2059,7 +2059,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7B9890-EFBB-4AB5-833A-460B2E8AB4D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5758B0A8-6D78-484B-8BEE-B0798985A4A6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2228,7 +2228,7 @@
         <v>467</v>
       </c>
       <c r="I4" s="7">
-        <v>498335</v>
+        <v>498336</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2330,7 +2330,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2604,7 +2604,7 @@
         <v>792</v>
       </c>
       <c r="N11" s="7">
-        <v>872589</v>
+        <v>872590</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2655,7 +2655,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D43F2-7B47-4D92-AE00-A5A09363CE75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2457EF7B-7619-442D-AFC6-520F5BE5BE7B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3355,7 +3355,7 @@
         <v>954</v>
       </c>
       <c r="N11" s="7">
-        <v>1010604</v>
+        <v>1010605</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>211</v>
@@ -3406,7 +3406,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E89623-A393-4F3F-8B77-3A3BB4CE2AC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CCF57F-474D-453D-B0C2-1F3F709D87F5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3715,7 @@
         <v>211</v>
       </c>
       <c r="D4" s="7">
-        <v>163936</v>
+        <v>153717</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3730,7 +3730,7 @@
         <v>640</v>
       </c>
       <c r="I4" s="7">
-        <v>370699</v>
+        <v>330965</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3745,7 +3745,7 @@
         <v>851</v>
       </c>
       <c r="N4" s="7">
-        <v>534635</v>
+        <v>484683</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
@@ -3766,7 +3766,7 @@
         <v>480</v>
       </c>
       <c r="D5" s="7">
-        <v>377698</v>
+        <v>361221</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>238</v>
@@ -3781,7 +3781,7 @@
         <v>787</v>
       </c>
       <c r="I5" s="7">
-        <v>465254</v>
+        <v>424543</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>241</v>
@@ -3796,7 +3796,7 @@
         <v>1267</v>
       </c>
       <c r="N5" s="7">
-        <v>842951</v>
+        <v>785763</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>244</v>
@@ -3817,7 +3817,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3832,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3847,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,7 +3870,7 @@
         <v>259</v>
       </c>
       <c r="D7" s="7">
-        <v>258210</v>
+        <v>244005</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>247</v>
@@ -3885,7 +3885,7 @@
         <v>506</v>
       </c>
       <c r="I7" s="7">
-        <v>326017</v>
+        <v>298337</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>250</v>
@@ -3900,7 +3900,7 @@
         <v>765</v>
       </c>
       <c r="N7" s="7">
-        <v>584227</v>
+        <v>542342</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>253</v>
@@ -3909,7 +3909,7 @@
         <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,46 +3921,46 @@
         <v>1730</v>
       </c>
       <c r="D8" s="7">
-        <v>1901508</v>
+        <v>2044158</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2412</v>
       </c>
       <c r="I8" s="7">
-        <v>1921741</v>
+        <v>1937879</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4142</v>
       </c>
       <c r="N8" s="7">
-        <v>3823250</v>
+        <v>3982037</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3972,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="7">
-        <v>2159718</v>
+        <v>2288163</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +3987,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="7">
-        <v>2247758</v>
+        <v>2236216</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +4002,7 @@
         <v>4907</v>
       </c>
       <c r="N9" s="7">
-        <v>4407477</v>
+        <v>4524379</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,46 +4025,46 @@
         <v>56</v>
       </c>
       <c r="D10" s="7">
-        <v>53498</v>
+        <v>50997</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
       </c>
       <c r="I10" s="7">
-        <v>68652</v>
+        <v>63181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
       </c>
       <c r="N10" s="7">
-        <v>122150</v>
+        <v>114178</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,28 +4076,28 @@
         <v>625</v>
       </c>
       <c r="D11" s="7">
-        <v>619541</v>
+        <v>595626</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>892</v>
       </c>
       <c r="I11" s="7">
-        <v>645234</v>
+        <v>597282</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>47</v>
@@ -4106,7 +4106,7 @@
         <v>1517</v>
       </c>
       <c r="N11" s="7">
-        <v>1264776</v>
+        <v>1192908</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>276</v>
@@ -4127,7 +4127,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4142,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4157,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,7 +4180,7 @@
         <v>526</v>
       </c>
       <c r="D13" s="7">
-        <v>475644</v>
+        <v>448720</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>279</v>
@@ -4195,7 +4195,7 @@
         <v>1258</v>
       </c>
       <c r="I13" s="7">
-        <v>765369</v>
+        <v>692484</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>282</v>
@@ -4210,7 +4210,7 @@
         <v>1784</v>
       </c>
       <c r="N13" s="7">
-        <v>1241013</v>
+        <v>1141203</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>285</v>
@@ -4231,7 +4231,7 @@
         <v>2835</v>
       </c>
       <c r="D14" s="7">
-        <v>2898748</v>
+        <v>3001005</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>288</v>
@@ -4246,7 +4246,7 @@
         <v>4091</v>
       </c>
       <c r="I14" s="7">
-        <v>3032229</v>
+        <v>2959703</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>291</v>
@@ -4261,7 +4261,7 @@
         <v>6926</v>
       </c>
       <c r="N14" s="7">
-        <v>5930976</v>
+        <v>5960709</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>294</v>
@@ -4282,7 +4282,7 @@
         <v>3361</v>
       </c>
       <c r="D15" s="7">
-        <v>3374392</v>
+        <v>3449725</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4297,7 @@
         <v>5349</v>
       </c>
       <c r="I15" s="7">
-        <v>3797598</v>
+        <v>3652187</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4312,7 @@
         <v>8710</v>
       </c>
       <c r="N15" s="7">
-        <v>7171989</v>
+        <v>7101912</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
